--- a/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Appointment.virtualService` 0..* `VirtualServiceDetail`
 Following are the generation technical comments:
-Element `Appointment.virtualService` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.virtualService` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Appointment</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Appointment.virtualService` 0..* `VirtualServiceDetail`
 Following are the generation technical comments:
-Element `Appointment.virtualService` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.virtualService` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -555,15 +555,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -687,7 +678,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1186,8 +1177,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3995,13 +3986,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4039,13 +4030,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4070,16 +4061,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4148,7 +4139,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>151</v>
@@ -4251,7 +4242,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>153</v>
@@ -4356,7 +4347,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>155</v>
@@ -4399,7 +4390,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4461,7 +4452,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>157</v>
@@ -4487,16 +4478,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4566,13 +4557,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4597,14 +4588,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4664,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>151</v>
@@ -4776,7 +4767,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>153</v>
@@ -4881,7 +4872,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>155</v>
@@ -4924,7 +4915,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4986,7 +4977,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>157</v>
@@ -5012,13 +5003,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5089,7 +5080,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
@@ -5120,16 +5111,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5198,7 +5189,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>151</v>
@@ -5301,7 +5292,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>153</v>
@@ -5406,7 +5397,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>155</v>
@@ -5511,7 +5502,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>157</v>
@@ -5537,16 +5528,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5616,13 +5607,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5647,14 +5638,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5723,7 +5714,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>151</v>
@@ -5826,7 +5817,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>153</v>
@@ -5931,7 +5922,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>155</v>
@@ -5974,7 +5965,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6036,7 +6027,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>157</v>
@@ -6062,13 +6053,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6139,13 +6130,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6170,16 +6161,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6239,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>151</v>
@@ -6351,7 +6342,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>153</v>
@@ -6456,7 +6447,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>155</v>
@@ -6499,7 +6490,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6561,7 +6552,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>157</v>
@@ -6587,16 +6578,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6666,7 +6657,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6771,7 +6762,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6797,7 +6788,7 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>142</v>
@@ -6874,13 +6865,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6905,16 +6896,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6983,7 +6974,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7086,7 +7077,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7191,7 +7182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7234,7 +7225,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7296,7 +7287,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7322,16 +7313,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7401,13 +7392,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7432,16 +7423,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7510,7 +7501,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7613,7 +7604,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7718,7 +7709,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7761,7 +7752,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7823,7 +7814,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7849,16 +7840,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7928,13 +7919,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7959,16 +7950,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8037,7 +8028,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8140,7 +8131,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8245,7 +8236,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8288,7 +8279,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8350,7 +8341,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8379,13 +8370,13 @@
         <v>88</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8586,7 +8577,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.virtualService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -461,6 +461,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-virtual-service-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:address</t>
   </si>
   <si>
@@ -555,6 +564,12 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -678,7 +693,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1177,8 +1192,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2623,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2667,13 +2682,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2698,14 +2713,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2774,7 +2789,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2877,7 +2892,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2980,7 +2995,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
@@ -3011,10 +3026,10 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3085,10 +3100,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3188,10 +3203,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3293,10 +3308,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3398,10 +3413,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3433,7 +3448,7 @@
         <v>124</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3441,7 +3456,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -3503,13 +3518,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3534,16 +3549,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3612,10 +3627,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3715,10 +3730,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3820,10 +3835,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3863,7 +3878,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3925,10 +3940,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3951,16 +3966,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3986,13 +4001,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4030,13 +4045,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4061,16 +4076,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4139,10 +4154,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4242,10 +4257,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4347,10 +4362,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4390,7 +4405,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4452,10 +4467,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4478,16 +4493,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4557,13 +4572,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4588,14 +4603,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4664,10 +4679,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4767,10 +4782,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4872,10 +4887,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4915,7 +4930,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4977,10 +4992,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5003,13 +5018,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5080,13 +5095,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5111,16 +5126,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5189,10 +5204,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5292,10 +5307,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5397,10 +5412,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5440,7 +5455,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5502,10 +5517,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5528,16 +5543,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5607,13 +5622,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5638,14 +5653,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5714,10 +5729,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5817,10 +5832,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5922,10 +5937,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5965,7 +5980,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6027,10 +6042,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6053,13 +6068,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6130,13 +6145,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6161,16 +6176,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6239,10 +6254,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6342,10 +6357,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6447,10 +6462,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6490,7 +6505,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6552,10 +6567,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6578,16 +6593,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6657,7 +6672,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6700,7 +6715,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6762,7 +6777,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6788,13 +6803,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6865,13 +6880,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6896,16 +6911,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6974,7 +6989,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7077,7 +7092,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7182,7 +7197,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7225,7 +7240,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7287,7 +7302,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7313,16 +7328,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7392,13 +7407,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7423,16 +7438,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7501,7 +7516,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7604,7 +7619,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7709,7 +7724,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7752,7 +7767,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7814,7 +7829,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7840,16 +7855,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7919,13 +7934,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7950,16 +7965,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8028,7 +8043,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8131,7 +8146,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8236,7 +8251,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8279,7 +8294,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8341,7 +8356,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8370,13 +8385,13 @@
         <v>88</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8577,7 +8592,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>123</v>
